--- a/results/new_cu_hedac_diffgoal/15x15/new_cu_hedac_diffgoal_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_diffgoal/15x15/new_cu_hedac_diffgoal_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>90.408</v>
+        <v>55.282</v>
       </c>
       <c r="D2" t="n">
-        <v>90.408</v>
+        <v>55.282</v>
       </c>
       <c r="E2" t="n">
-        <v>1.90117</v>
+        <v>3.09500908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1327</v>
+        <v>0.1989465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1327</v>
+        <v>0.1989465</v>
       </c>
       <c r="H2" t="n">
-        <v>11.82648</v>
+        <v>10.84994284</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>6.128097842424896</v>
       </c>
       <c r="J2" t="n">
-        <v>11.9198</v>
+        <v>6.128097842424896</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3465613092005847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02770936486736398</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02770936486736398</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7396395379633052</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>55.282</v>
+        <v>90.408</v>
       </c>
       <c r="D3" t="n">
-        <v>55.282</v>
+        <v>90.408</v>
       </c>
       <c r="E3" t="n">
-        <v>3.09501</v>
+        <v>1.90116602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.19895</v>
+        <v>0.13269806</v>
       </c>
       <c r="G3" t="n">
-        <v>0.19895</v>
+        <v>0.13269806</v>
       </c>
       <c r="H3" t="n">
-        <v>10.84994</v>
+        <v>11.82647556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>11.93173367692533</v>
       </c>
       <c r="J3" t="n">
-        <v>6.12197</v>
+        <v>11.93173367692533</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2460433212795098</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01984652958856585</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01984652958856585</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.211475526843596</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>62.094</v>
       </c>
       <c r="E4" t="n">
-        <v>2.81652</v>
+        <v>2.81651776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25051</v>
+        <v>0.25050596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12525</v>
+        <v>0.1252528</v>
       </c>
       <c r="H4" t="n">
-        <v>3.77786</v>
+        <v>3.77786416</v>
       </c>
       <c r="I4" t="n">
+        <v>5.730996828589124</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.46455564215833</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5294053305615996</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05558009970344142</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02779003914915961</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5679643988450378</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.72526</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>95.236</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82074</v>
+        <v>1.82073864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17853</v>
+        <v>0.1785273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08926000000000001</v>
+        <v>0.0892638</v>
       </c>
       <c r="H5" t="n">
-        <v>4.24773</v>
+        <v>4.2477316</v>
       </c>
       <c r="I5" t="n">
+        <v>8.477073643369522</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.26835122395985</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2970759085780355</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.03290491233572342</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01645246477444363</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.54541678584841</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.468590000000001</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.678</v>
+        <v>15.136</v>
       </c>
       <c r="D6" t="n">
-        <v>95.56999999999999</v>
+        <v>60.514</v>
       </c>
       <c r="E6" t="n">
-        <v>1.82187</v>
+        <v>2.9572709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.24336</v>
+        <v>0.29980848</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06084</v>
+        <v>0.07495210000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.52148</v>
+        <v>1.09935954</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>3.746140833215506</v>
       </c>
       <c r="J6" t="n">
-        <v>5.38835</v>
+        <v>14.98823199034472</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7049223475481079</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07687250283341467</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01921827907725826</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2682806637338131</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.136</v>
+        <v>25.678</v>
       </c>
       <c r="D7" t="n">
-        <v>60.514</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>2.95727</v>
+        <v>1.82186828</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29981</v>
+        <v>0.24335592</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07495</v>
+        <v>0.06083898000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09936</v>
+        <v>1.52148324</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.393746471795278</v>
       </c>
       <c r="J7" t="n">
-        <v>3.74239</v>
+        <v>16.6816562520219</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3165163245902268</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.05475961097873765</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01368999501411791</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3007329667043972</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>3.10125</v>
+        <v>3.10125016</v>
       </c>
       <c r="F8" t="n">
-        <v>0.35805</v>
+        <v>0.35805146</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05968</v>
+        <v>0.05967514</v>
       </c>
       <c r="H8" t="n">
-        <v>0.56848</v>
+        <v>0.56847574</v>
       </c>
       <c r="I8" t="n">
+        <v>2.518245245848083</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.11333271159285</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7586036283162397</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1066347532057486</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01777221345027806</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2045253984385933</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.51573</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>88.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98654</v>
+        <v>1.98654412</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25505</v>
+        <v>0.25504854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04251</v>
+        <v>0.04250812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.71085</v>
+        <v>0.7108454000000001</v>
       </c>
       <c r="I9" t="n">
+        <v>4.165448105046043</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.44417287805278</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3814642765166121</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.05324956946835844</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.008874801443803341</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1726952920186617</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.16128</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.072</v>
+        <v>7.244</v>
       </c>
       <c r="D10" t="n">
-        <v>81.604</v>
+        <v>57.808</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1462</v>
+        <v>3.1094637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24522</v>
+        <v>0.31977384</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03065</v>
+        <v>0.03997164</v>
       </c>
       <c r="H10" t="n">
-        <v>0.39435</v>
+        <v>0.2897661599999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.828428369010173</v>
       </c>
       <c r="J10" t="n">
-        <v>3.46624</v>
+        <v>14.6044416336559</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7860699164320875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.09241374735316228</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01155152151922934</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1197893736126683</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.244</v>
+        <v>13.072</v>
       </c>
       <c r="D11" t="n">
-        <v>57.808</v>
+        <v>81.604</v>
       </c>
       <c r="E11" t="n">
-        <v>3.10946</v>
+        <v>2.146199220000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.31977</v>
+        <v>0.24522004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03997</v>
+        <v>0.03065262</v>
       </c>
       <c r="H11" t="n">
-        <v>0.28977</v>
+        <v>0.39434694</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.469710908357518</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8266</v>
+        <v>15.67643726650738</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4069580778062713</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0492322764137528</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.006154130122993946</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.113916739230854</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>58.108</v>
       </c>
       <c r="E12" t="n">
-        <v>3.13271</v>
+        <v>3.1327158</v>
       </c>
       <c r="F12" t="n">
-        <v>0.29287</v>
+        <v>0.29287424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02929</v>
+        <v>0.02928736</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17249</v>
+        <v>0.172486</v>
       </c>
       <c r="I12" t="n">
+        <v>1.632499344017152</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16.28246213403527</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8603027700272695</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.09142711396713296</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.009142848614736217</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.07780056739493579</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.63087</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>75.97799999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2.31495</v>
+        <v>2.3149498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.22915</v>
+        <v>0.22915482</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02292</v>
+        <v>0.0229155</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24673</v>
+        <v>0.24672734</v>
       </c>
       <c r="I13" t="n">
+        <v>3.462524823927278</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.43431086585364</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4635590358491514</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.045648012239422</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.004565058451688726</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08703436025648095</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.45906</v>
       </c>
     </row>
   </sheetData>

--- a/results/new_cu_hedac_diffgoal/15x15/new_cu_hedac_diffgoal_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_diffgoal/15x15/new_cu_hedac_diffgoal_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/new_cu_hedac_diffgoal/15x15/new_cu_hedac_diffgoal_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_diffgoal/15x15/new_cu_hedac_diffgoal_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.1989465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1989465</v>
+        <v>10.849948</v>
       </c>
       <c r="H2" t="n">
-        <v>10.84994284</v>
+        <v>599.00257804</v>
       </c>
       <c r="I2" t="n">
         <v>6.128097842424896</v>
@@ -548,10 +548,10 @@
         <v>0.02770936486736398</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02770936486736398</v>
+        <v>0.7396380624240296</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7396395379633052</v>
+        <v>71.24459305997657</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.13269806</v>
       </c>
       <c r="G3" t="n">
-        <v>0.13269806</v>
+        <v>11.82648092</v>
       </c>
       <c r="H3" t="n">
-        <v>11.82647556</v>
+        <v>1072.18224382</v>
       </c>
       <c r="I3" t="n">
         <v>11.93173367692533</v>
@@ -595,10 +595,10 @@
         <v>0.01984652958856585</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01984652958856585</v>
+        <v>1.211473474975781</v>
       </c>
       <c r="N3" t="n">
-        <v>1.211475526843596</v>
+        <v>198.8988328486925</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.25050596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1252528</v>
+        <v>3.77786168</v>
       </c>
       <c r="H4" t="n">
-        <v>3.77786416</v>
+        <v>117.8756196</v>
       </c>
       <c r="I4" t="n">
         <v>5.730996828589124</v>
@@ -642,10 +642,10 @@
         <v>0.05558009970344142</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02779003914915961</v>
+        <v>0.5679745803828722</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5679643988450378</v>
+        <v>29.91926874613998</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.1785273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0892638</v>
+        <v>4.24773734</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2477316</v>
+        <v>208.2055144</v>
       </c>
       <c r="I5" t="n">
         <v>8.477073643369522</v>
@@ -689,10 +689,10 @@
         <v>0.03290491233572342</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01645246477444363</v>
+        <v>0.5454160940460165</v>
       </c>
       <c r="N5" t="n">
-        <v>0.54541678584841</v>
+        <v>51.6332671987437</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.29980848</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07495210000000001</v>
+        <v>1.09936002</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09935954</v>
+        <v>17.09028364</v>
       </c>
       <c r="I6" t="n">
         <v>3.746140833215506</v>
@@ -736,10 +736,10 @@
         <v>0.07687250283341467</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01921827907725826</v>
+        <v>0.2682831429041576</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2682806637338131</v>
+        <v>7.407689108259147</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.24335592</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06083898000000001</v>
+        <v>1.52148366</v>
       </c>
       <c r="H7" t="n">
-        <v>1.52148324</v>
+        <v>39.70372676</v>
       </c>
       <c r="I7" t="n">
         <v>5.393746471795278</v>
@@ -783,10 +783,10 @@
         <v>0.05475961097873765</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01368999501411791</v>
+        <v>0.3007313816718317</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3007329667043972</v>
+        <v>14.59971592972864</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.35805146</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05967514</v>
+        <v>0.56847474</v>
       </c>
       <c r="H8" t="n">
-        <v>0.56847574</v>
+        <v>5.76777984</v>
       </c>
       <c r="I8" t="n">
         <v>2.518245245848083</v>
@@ -830,10 +830,10 @@
         <v>0.1066347532057486</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01777221345027806</v>
+        <v>0.2045249537703454</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2045253984385933</v>
+        <v>3.269834813216015</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.25504854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04250812</v>
+        <v>0.71084504</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7108454000000001</v>
+        <v>12.56477354</v>
       </c>
       <c r="I9" t="n">
         <v>4.165448105046043</v>
@@ -877,10 +877,10 @@
         <v>0.05324956946835844</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008874801443803341</v>
+        <v>0.1726946855599201</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1726952920186617</v>
+        <v>5.778872800209819</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.31977384</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03997164</v>
+        <v>0.28976586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2897661599999999</v>
+        <v>2.233636</v>
       </c>
       <c r="I10" t="n">
         <v>1.828428369010173</v>
@@ -924,10 +924,10 @@
         <v>0.09241374735316228</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01155152151922934</v>
+        <v>0.1197891019122118</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1197893736126683</v>
+        <v>1.459462870458888</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.24522004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03065262</v>
+        <v>0.3943485</v>
       </c>
       <c r="H11" t="n">
-        <v>0.39434694</v>
+        <v>5.443070659999999</v>
       </c>
       <c r="I11" t="n">
         <v>3.469710908357518</v>
@@ -971,10 +971,10 @@
         <v>0.0492322764137528</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006154130122993946</v>
+        <v>0.113917157464007</v>
       </c>
       <c r="N11" t="n">
-        <v>0.113916739230854</v>
+        <v>3.123867325064587</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.29287424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02928736</v>
+        <v>0.1724858</v>
       </c>
       <c r="H12" t="n">
-        <v>0.172486</v>
+        <v>1.09011984</v>
       </c>
       <c r="I12" t="n">
         <v>1.632499344017152</v>
@@ -1018,10 +1018,10 @@
         <v>0.09142711396713296</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009142848614736217</v>
+        <v>0.07780214060117015</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07780056739493579</v>
+        <v>0.7553301821596546</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.22915482</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0229155</v>
+        <v>0.24672746</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24672734</v>
+        <v>2.92827752</v>
       </c>
       <c r="I13" t="n">
         <v>3.462524823927278</v>
@@ -1065,10 +1065,10 @@
         <v>0.045648012239422</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004565058451688726</v>
+        <v>0.08703414882603347</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08703436025648095</v>
+        <v>2.351381151570151</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
